--- a/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
+++ b/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ステージ</t>
   </si>
@@ -666,7 +666,56 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -710,22 +759,30 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -733,6 +790,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC6600"/>
       <color rgb="FFDDDDDD"/>
     </mruColors>
   </colors>
@@ -1013,7 +1071,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1214,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1253,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1264,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1303,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1314,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1353,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1548,20 +1606,25 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1 D8:XFD10 D7:G7 G5:G6 H5:K7 L2:XFD7 A12:B13 A14:XFD1048576 C11:XFD13">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
+++ b/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
@@ -5,26 +5,31 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp030\Desktop\git\take-a-camp\01_project\take a camp\take a camp\data\Text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\take-a-camp\01_project\take a camp\take a camp\data\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stage02" sheetId="1" r:id="rId1"/>
+    <sheet name="stage01" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ステージ</t>
   </si>
   <si>
     <t>生成</t>
+  </si>
+  <si>
+    <t>POS</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -666,25 +671,18 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC6600"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFDDDDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -705,13 +703,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFCC6600"/>
         </patternFill>
       </fill>
@@ -726,28 +717,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FFCC6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,13 +1040,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="H5">
         <v>0</v>
       </c>
@@ -1098,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G6">
         <v>0</v>
       </c>
@@ -1118,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E7">
         <v>0</v>
       </c>
@@ -1150,72 +1124,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
       <c r="N9">
         <v>5</v>
       </c>
@@ -1223,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>0</v>
       </c>
@@ -1267,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>0</v>
       </c>
@@ -1317,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>0</v>
       </c>
@@ -1367,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1417,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C14">
         <v>0</v>
       </c>
@@ -1461,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D15">
         <v>0</v>
       </c>
@@ -1469,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1490,7 +1467,7 @@
         <v>5</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -1499,12 +1476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1531,13 +1508,13 @@
         <v>5</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.4">
       <c r="E17">
         <v>0</v>
       </c>
@@ -1569,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.4">
       <c r="G18">
         <v>0</v>
       </c>
@@ -1589,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.4">
       <c r="H19">
         <v>0</v>
       </c>
@@ -1630,4 +1607,855 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>150</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:XFD1 D8:XFD10 D7:G7 G5:G6 H5:K7 A12:B13 H6:S6 L2:XFD7 E9:E17 P8:R17 I10:J11 I13:J14 L13:M14 A14:XFD1048576 O13:P14 L10:M11 L7:M8 O10:P11 F10:G11 F13:G14 C11:XFD13">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
+++ b/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
@@ -15,12 +15,12 @@
     <sheet name="stage02" sheetId="1" r:id="rId1"/>
     <sheet name="stage01" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
   <si>
     <t>ステージ</t>
   </si>
@@ -31,11 +31,22 @@
     <t>POS</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-411]General"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,8 +633,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,13 +696,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -697,6 +704,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1611,17 +1625,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
@@ -1637,42 +1652,171 @@
       <c r="D1">
         <v>-200</v>
       </c>
+      <c r="F1">
+        <f>COUNTIF(2:10000,"x")</f>
+        <v>17</v>
+      </c>
+      <c r="G1">
+        <f>COUNTIF(2:10000,"y")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
+      <c r="S4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1684,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1693,763 +1837,760 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P5">
         <v>5</v>
       </c>
       <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <v>5</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>5</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>5</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>5</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18">
-        <v>5</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-      <c r="R18">
-        <v>5</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>5</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:XFD1 D8:XFD10 D7:G7 G5:G6 H5:K7 A12:B13 H6:S6 L2:XFD7 E9:E17 P8:R17 I10:J11 I13:J14 L13:M14 A14:XFD1048576 O13:P14 L10:M11 L7:M8 O10:P11 F10:G11 F13:G14 C11:XFD13">
+  <conditionalFormatting sqref="A1:E1 B5:E5 E3:E4 F3:I5 F4:Q4 C7:C15 N6:P15 G8:H9 J8:K9 J5:K6 M8:N9 D8:E9 R2:R3 B6:Q8 J2:Q5 T5:XFD5 A9:Q18 A25:D25 F25:XFD25 A23:XFD23 V6:W22 Y6:XFD22 X4:XFD4 A26:XFD1048576 R24:XFD24 H1:XFD1 T2:XFD3">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="T5:XFD5 A25:D25 F25:XFD25 A23:XFD23 Y6:XFD22 X4:XFD4 A26:XFD1048576 V6:W22 A2:Q18 R24:XFD24 R2:R3 A1:XFD1 T2:XFD3">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>2</formula>

--- a/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
+++ b/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
@@ -5,32 +5,48 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp030\Desktop\git\take-a-camp\01_project\take a camp\take a camp\data\Text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-JoBi-035\Desktop\take-a-camp\01_project\take a camp\take a camp\data\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stage02" sheetId="1" r:id="rId1"/>
+    <sheet name="stage01" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
   <si>
     <t>ステージ</t>
   </si>
   <si>
     <t>生成</t>
   </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CENTER_POS</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-411]General"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,8 +633,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,21 +685,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -726,28 +731,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FFCC6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,11 +1054,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1155,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1182,7 +1170,10 @@
         <v>5</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
@@ -1193,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1214,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -1469,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1490,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -1504,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1531,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1630,4 +1621,980 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <f>COUNTIF(2:10000,"x")-1</f>
+        <v>16</v>
+      </c>
+      <c r="L1">
+        <f>COUNTIF(2:10000,"y")-1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="B5:E5 E3:E4 F3:I5 F4:Q4 C7:C15 N6:P15 G8:H9 J8:K9 J5:K6 M8:N9 D8:E9 R2:R3 B6:Q8 J2:Q5 T5:XFD5 A9:Q18 A25:D25 F25:XFD25 A23:XFD23 V6:W22 Y6:XFD22 X4:XFD4 A26:XFD1048576 R24:XFD24 H1:J1 T2:XFD3 M1:XFD1 A1:D1">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:XFD5 A25:D25 F25:XFD25 A23:XFD23 Y6:XFD22 X4:XFD4 A26:XFD1048576 V6:W22 A2:Q18 R24:XFD24 R2:R3 T2:XFD3 H1:XFD1 A1:D1">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
+++ b/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-JoBi-035\Desktop\take-a-camp\01_project\take a camp\take a camp\data\Text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp030\Desktop\git\take-a-camp\01_project\take a camp\take a camp\data\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stage02" sheetId="1" r:id="rId1"/>
     <sheet name="stage01" sheetId="3" r:id="rId2"/>
+    <sheet name="tile_data" sheetId="5" r:id="rId3"/>
+    <sheet name="enum" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="26">
   <si>
     <t>ステージ</t>
   </si>
@@ -39,6 +41,88 @@
     <t>CENTER_POS</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ラベル名</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TILE_NONE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ノーマル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TILE_NORMAL</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1Pスポーン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2Pスポーン</t>
+  </si>
+  <si>
+    <t>3Pスポーン</t>
+  </si>
+  <si>
+    <t>4Pスポーン</t>
+  </si>
+  <si>
+    <t>とげ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TILE_NEEDLE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TILE_</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tile_Data_Num</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>とげ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TILE_PLAYER</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TILE_PLAYER</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TILE_PLAYER</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1Pスポーン</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ノーマル</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -47,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[DBNum1][$-411]General"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +291,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,8 +489,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -504,6 +611,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,12 +789,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -685,7 +892,186 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -787,6 +1173,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TILE_ENUM" displayName="TILE_ENUM" ref="B2:D50" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="B2:D50"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="No." dataDxfId="2">
+      <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="種類" dataDxfId="1"/>
+    <tableColumn id="3" name="ラベル名" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,7 +1455,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1597,24 +1997,24 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1 D8:XFD10 D7:G7 G5:G6 H5:K7 L2:XFD7 A12:B13 A14:XFD1048576 C11:XFD13">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1627,7 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2573,28 +2973,1168 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B5:E5 E3:E4 F3:I5 F4:Q4 C7:C15 N6:P15 G8:H9 J8:K9 J5:K6 M8:N9 D8:E9 R2:R3 B6:Q8 J2:Q5 T5:XFD5 A9:Q18 A25:D25 F25:XFD25 A23:XFD23 V6:W22 Y6:XFD22 X4:XFD4 A26:XFD1048576 R24:XFD24 H1:J1 T2:XFD3 M1:XFD1 A1:D1">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:XFD5 A25:D25 F25:XFD25 A23:XFD23 Y6:XFD22 X4:XFD4 A26:XFD1048576 V6:W22 A2:Q18 R24:XFD24 R2:R3 T2:XFD3 H1:XFD1 A1:D1">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="4" width="16.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B2" s="16">
+        <f>IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C2,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C2,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_NONE</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B3" s="16">
+        <f t="shared" ref="B3:B50" si="0">IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C3,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C3,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_PLAYER</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B4" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C4,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C4,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_PLAYER</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B5" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C5,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C5,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_PLAYER</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B6" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C6,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C6,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_PLAYER</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B7" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C7,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C7,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_NORMAL</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B8" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C8,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C8,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_NEEDLE</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C9,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C9,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C10,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C10,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C11,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C11,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C12,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C12,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C13,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C13,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C14,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C14,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C15,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C15,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C16,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C16,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C17,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C17,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C18,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C18,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C19,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C19,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C20,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C20,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C21,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C21,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C22,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C22,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C23,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C23,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C24,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C24,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C25,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C25,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C26,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C26,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C27,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C27,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C28,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C28,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B29" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C29,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C29,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B30" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C30,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C30,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B31" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C31,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C31,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B32" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C32,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C32,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C33,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C33,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C34,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C34,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C35,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C35,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C36,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C36,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C37,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C37,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C38,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C38,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C39,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C39,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C40,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C40,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B41" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C41,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C41,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B42" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C42,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C42,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B43" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C43,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C43,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B44" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C44,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C44,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B45" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C45,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C45,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B46" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C46,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C46,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B47" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C47,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C47,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B48" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C48,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C48,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B49" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C49,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C49,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B50" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C50,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C50,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="B2:B50">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B50">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="4">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="7">
+        <f t="shared" ref="B4:B50" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B45" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B46" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B47" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B48" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
+++ b/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp030\Desktop\git\take-a-camp\01_project\take a camp\take a camp\data\Text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\take-a-camp\01_project\take a camp\take a camp\data\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stage02" sheetId="1" r:id="rId1"/>
-    <sheet name="stage01" sheetId="3" r:id="rId2"/>
-    <sheet name="tile_data" sheetId="5" r:id="rId3"/>
-    <sheet name="enum" sheetId="4" r:id="rId4"/>
+    <sheet name="stage02 (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="stage02" sheetId="1" r:id="rId2"/>
+    <sheet name="stage01" sheetId="3" r:id="rId3"/>
+    <sheet name="tile_data" sheetId="5" r:id="rId4"/>
+    <sheet name="enum" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="26">
   <si>
     <t>ステージ</t>
   </si>
@@ -892,7 +893,651 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="97">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1030,132 +1675,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1176,14 +1695,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TILE_ENUM" displayName="TILE_ENUM" ref="B2:D50" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TILE_ENUM" displayName="TILE_ENUM" ref="B2:D50" totalsRowShown="0" headerRowDxfId="96" tableBorderDxfId="95">
   <autoFilter ref="B2:D50"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="No." dataDxfId="2">
+    <tableColumn id="1" name="No." dataDxfId="94">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="種類" dataDxfId="1"/>
-    <tableColumn id="3" name="ラベル名" dataDxfId="0"/>
+    <tableColumn id="2" name="種類" dataDxfId="93"/>
+    <tableColumn id="3" name="ラベル名" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1452,19 +1971,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="H5">
         <v>0</v>
       </c>
@@ -1485,8 +2004,20 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="G6">
         <v>0</v>
       </c>
@@ -1505,8 +2036,26 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="E7">
         <v>0</v>
       </c>
@@ -1537,8 +2086,38 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D8">
         <v>0</v>
       </c>
@@ -1575,8 +2154,44 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>5</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D9">
         <v>0</v>
       </c>
@@ -1613,8 +2228,44 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>0</v>
       </c>
@@ -1657,13 +2308,55 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1702,18 +2395,60 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -1752,18 +2487,60 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1802,13 +2579,55 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AB13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C14">
         <v>0</v>
       </c>
@@ -1851,8 +2670,50 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <v>5</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D15">
         <v>0</v>
       </c>
@@ -1889,8 +2750,44 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="D16">
         <v>0</v>
       </c>
@@ -1927,8 +2824,44 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.45">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16">
+        <v>5</v>
+      </c>
+      <c r="AB16">
+        <v>5</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:28" x14ac:dyDescent="0.4">
       <c r="E17">
         <v>0</v>
       </c>
@@ -1959,8 +2892,38 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.45">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:28" x14ac:dyDescent="0.4">
       <c r="G18">
         <v>0</v>
       </c>
@@ -1979,8 +2942,26 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.45">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:28" x14ac:dyDescent="0.4">
       <c r="H19">
         <v>0</v>
       </c>
@@ -1991,30 +2972,42 @@
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:XFD1 D8:XFD10 D7:G7 G5:G6 H5:K7 L2:XFD7 A12:B13 A14:XFD1048576 C11:XFD13">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 D7:G7 G5:G6 H5:K7 A12:B13 A14:XFD1048576 C11:XFD13 D8:XFD10 L2:XFD7 Q11:AE19">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2025,19 +3018,963 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <f>COUNTIF(2:10000,"x")-1</f>
+        <v>13</v>
+      </c>
+      <c r="I1">
+        <f>COUNTIF(2:10000,"y")-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="E1:G1 C4:F4 F2:F3 R2:XFD3 A2:P2 P2:P16 A23:XFD1048576 A2:A16 J1:XFD1 A20:R21 T4:XFD22 A22 C5:P7 B8:P10 G2:P4 R4:R16 A11:P16 R18:R19">
+    <cfRule type="cellIs" dxfId="50" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:XFD3 E1:G1 J1:XFD1 A23:XFD1048576 T4:XFD22 A22 A20:R21 R4:R16 A2:P16 R18:R19">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 C1">
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 C1">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I1">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:XFD34">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:Q20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2059,7 +3996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2088,7 +4025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2144,7 +4081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2200,7 +4137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2214,31 +4151,31 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -2256,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>0</v>
       </c>
@@ -2264,37 +4201,37 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -2306,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>0</v>
       </c>
@@ -2329,7 +4266,7 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -2356,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2364,37 +4301,37 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -2406,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>0</v>
       </c>
@@ -2414,16 +4351,16 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -2435,16 +4372,16 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>5</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -2456,7 +4393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>0</v>
       </c>
@@ -2470,7 +4407,7 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -2488,7 +4425,7 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>5</v>
@@ -2506,7 +4443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>0</v>
       </c>
@@ -2514,16 +4451,16 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -2535,16 +4472,16 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>5</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -2556,7 +4493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>0</v>
       </c>
@@ -2564,37 +4501,37 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>5</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -2606,7 +4543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>0</v>
       </c>
@@ -2629,7 +4566,7 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2656,7 +4593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>0</v>
       </c>
@@ -2664,37 +4601,37 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>5</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>5</v>
@@ -2706,7 +4643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2720,31 +4657,31 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -2762,7 +4699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2818,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2874,7 +4811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2903,7 +4840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2956,7 +4893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2972,635 +4909,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="B5:E5 E3:E4 F3:I5 F4:Q4 C7:C15 N6:P15 G8:H9 J8:K9 J5:K6 M8:N9 D8:E9 R2:R3 B6:Q8 J2:Q5 T5:XFD5 A9:Q18 A25:D25 F25:XFD25 A23:XFD23 V6:W22 Y6:XFD22 X4:XFD4 A26:XFD1048576 R24:XFD24 H1:J1 T2:XFD3 M1:XFD1 A1:D1">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+  <conditionalFormatting sqref="B5:E5 E3:E4 F3:I5 F4:Q4 C7:C15 N6:P15 R2:R3 B6:Q8 J2:Q5 T5:XFD5 A9:Q18 A25:D25 F25:XFD25 A23:XFD23 V6:W22 Y6:XFD22 X4:XFD4 A26:XFD1048576 R24:XFD24 H1:J1 T2:XFD3 M1:XFD1 A1:D1 D5:N15">
+    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:XFD5 A25:D25 F25:XFD25 A23:XFD23 Y6:XFD22 X4:XFD4 A26:XFD1048576 V6:W22 A2:Q18 R24:XFD24 R2:R3 T2:XFD3 H1:XFD1 A1:D1">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="T5:XFD5 A25:D25 F25:XFD25 A23:XFD23 Y6:XFD22 X4:XFD4 A26:XFD1048576 V6:W22 R24:XFD24 R2:R3 T2:XFD3 H1:XFD1 A1:D1 A2:Q18">
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
       <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="4" width="16.8984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B2" s="16">
-        <f>IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C2,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C2,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v>TILE_NONE</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B3" s="16">
-        <f t="shared" ref="B3:B50" si="0">IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C3,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C3,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v>TILE_PLAYER</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B4" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C4,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C4,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v>TILE_PLAYER</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B5" s="16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C5,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C5,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v>TILE_PLAYER</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B6" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C6,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C6,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v>TILE_PLAYER</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C7,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C7,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v>TILE_NORMAL</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B8" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C8,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C8,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v>TILE_NEEDLE</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B9" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C9,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C9,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C10,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C10,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B11" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C11,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C11,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B12" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C12,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C12,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B13" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C13,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C13,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B14" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C14,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C14,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C15,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C15,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C16,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C16,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C17,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C17,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C18,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C18,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C19,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C19,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C20,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C20,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C21,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C21,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B22" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C22,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C22,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B23" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C23,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C23,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B24" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C24,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C24,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C25,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C25,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B26" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C26,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C26,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B27" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C27,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C27,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B28" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C28,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C28,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B29" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C29,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C29,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B30" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C30,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C30,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B31" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C31,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C31,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B32" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C32,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C32,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B33" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C33,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C33,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B34" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C34,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C34,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B35" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C35,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C35,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B36" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C36,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C36,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B37" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C37,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C37,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B38" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C38,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C38,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B39" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C39,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C39,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B40" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C40,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C40,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B41" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C41,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C41,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B42" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C42,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C42,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B43" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C43,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C43,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B44" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C44,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C44,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B45" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C45,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C45,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B46" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C46,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C46,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B47" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C47,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C47,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B48" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C48,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C48,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B49" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C49,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C49,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B50" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13" t="str">
-        <f>IFERROR(VLOOKUP(C50,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C50,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="B2:B50">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B50">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3610,21 +4938,630 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="4" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B2" s="16">
+        <f>IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C2,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C2,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_NONE</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B3" s="16">
+        <f t="shared" ref="B3:B50" si="0">IF(ROW()-2&gt;$D$1 - 1,"",ROW()-2)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C3,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C3,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_PLAYER</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B4" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C4,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C4,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_PLAYER</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B5" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C5,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C5,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_PLAYER</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B6" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C6,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C6,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_PLAYER</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B7" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C7,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C7,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_NORMAL</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B8" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C8,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C8,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v>TILE_NEEDLE</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C9,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C9,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C10,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C10,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C11,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C11,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C12,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C12,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C13,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C13,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C14,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C14,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C15,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C15,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C16,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C16,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C17,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C17,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C18,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C18,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C19,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C19,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C20,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C20,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C21,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C21,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C22,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C22,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C23,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C23,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C24,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C24,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C25,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C25,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C26,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C26,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C27,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C27,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C28,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C28,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B29" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C29,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C29,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B30" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C30,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C30,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B31" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C31,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C31,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B32" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C32,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C32,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C33,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C33,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C34,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C34,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C35,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C35,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C36,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C36,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C37,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C37,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C38,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C38,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C39,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C39,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C40,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C40,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B41" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C41,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C41,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B42" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C42,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C42,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B43" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C43,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C43,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B44" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C44,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C44,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B45" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C45,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C45,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B46" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C46,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C46,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B47" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C47,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C47,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B48" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C48,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C48,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B49" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C49,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C49,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B50" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="13" t="str">
+        <f>IFERROR(VLOOKUP(C50,TILE_ENUM[#Data],3,FALSE),IFERROR(VLOOKUP(MATCH(C50,TILE_ENUM[種類],0),TILE_ENUM[#Data],3,FALSE),""))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="B2:B50">
+    <cfRule type="cellIs" dxfId="73" priority="8" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B50">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.09765625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3635,7 +5572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
@@ -3647,7 +5584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="7">
         <f t="shared" ref="B4:B50" si="0">ROW()-2</f>
         <v>2</v>
@@ -3659,7 +5596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3671,7 +5608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3683,7 +5620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3695,7 +5632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3707,7 +5644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3719,7 +5656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3729,7 +5666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3739,7 +5676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3749,7 +5686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3759,7 +5696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3769,7 +5706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3779,7 +5716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3789,7 +5726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3799,7 +5736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3809,7 +5746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3819,7 +5756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3829,7 +5766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3839,7 +5776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3849,7 +5786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3859,7 +5796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3869,7 +5806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3879,7 +5816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3889,7 +5826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3899,7 +5836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3909,7 +5846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3919,7 +5856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3929,7 +5866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3939,7 +5876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3949,7 +5886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3959,7 +5896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3969,7 +5906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3979,7 +5916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3989,7 +5926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3999,7 +5936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4009,7 +5946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4019,7 +5956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4029,7 +5966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4039,7 +5976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4049,7 +5986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4059,7 +5996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4069,7 +6006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4079,7 +6016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4089,7 +6026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4099,7 +6036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4109,7 +6046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4119,7 +6056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50" s="7">
         <f t="shared" si="0"/>
         <v>48</v>

--- a/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
+++ b/01_project/take a camp/take a camp/data/Text/stage_base.xlsx
@@ -893,7 +893,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill>
@@ -919,6 +919,62 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -954,55 +1010,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1129,370 +1136,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDDDDD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1695,14 +1338,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TILE_ENUM" displayName="TILE_ENUM" ref="B2:D50" totalsRowShown="0" headerRowDxfId="96" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TILE_ENUM" displayName="TILE_ENUM" ref="B2:D50" totalsRowShown="0" headerRowDxfId="45" tableBorderDxfId="44">
   <autoFilter ref="B2:D50"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="No." dataDxfId="94">
+    <tableColumn id="1" name="No." dataDxfId="43">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="種類" dataDxfId="93"/>
-    <tableColumn id="3" name="ラベル名" dataDxfId="92"/>
+    <tableColumn id="2" name="種類" dataDxfId="42"/>
+    <tableColumn id="3" name="ラベル名" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2990,24 +2633,24 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1 D7:G7 G5:G6 H5:K7 A12:B13 A14:XFD1048576 C11:XFD13 D8:XFD10 L2:XFD7 Q11:AE19">
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3018,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3101,9 +2744,6 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -3799,157 +3439,234 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+      <c r="Q16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>2</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>2</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" t="s">
         <v>2</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>2</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>2</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>2</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N18" t="s">
         <v>2</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O18" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="E1:G1 C4:F4 F2:F3 R2:XFD3 A2:P2 P2:P16 A23:XFD1048576 A2:A16 J1:XFD1 A20:R21 T4:XFD22 A22 C5:P7 B8:P10 G2:P4 R4:R16 A11:P16 R18:R19">
-    <cfRule type="cellIs" dxfId="50" priority="17" operator="equal">
+  <conditionalFormatting sqref="E1:G1 C4:F4 F2:F3 R2:XFD3 A2:P2 A23:XFD1048576 J1:XFD1 A20:R21 T4:XFD22 A22 C5:P7 B8:P10 G2:P4 R4:R16 R18:R19 A11:P14 A2:A16 B16:O17 P2:P16">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:XFD3 E1:G1 J1:XFD1 A23:XFD1048576 T4:XFD22 A22 A20:R21 R4:R16 A2:P16 R18:R19">
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+  <conditionalFormatting sqref="R2:XFD3 E1:G1 J1:XFD1 A23:XFD1048576 T4:XFD22 A22 A20:R21 R4:R16 R18:R19 A2:P14 A15:A16 B16:O17 P15:P16">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 C1">
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1 C1">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:XFD34">
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
+  <conditionalFormatting sqref="A19:XFD34 A2:XFD14 A15:A18 B16:O18 P15:XFD18">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:O15">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:O15">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:O15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4910,24 +4627,24 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B5:E5 E3:E4 F3:I5 F4:Q4 C7:C15 N6:P15 R2:R3 B6:Q8 J2:Q5 T5:XFD5 A9:Q18 A25:D25 F25:XFD25 A23:XFD23 V6:W22 Y6:XFD22 X4:XFD4 A26:XFD1048576 R24:XFD24 H1:J1 T2:XFD3 M1:XFD1 A1:D1 D5:N15">
-    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:XFD5 A25:D25 F25:XFD25 A23:XFD23 Y6:XFD22 X4:XFD4 A26:XFD1048576 V6:W22 R24:XFD24 R2:R3 T2:XFD3 H1:XFD1 A1:D1 A2:Q18">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5519,24 +5236,24 @@
   </mergeCells>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="B2:B50">
-    <cfRule type="cellIs" dxfId="73" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B50">
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
